--- a/data/trans_orig/P05A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6DE59D-766A-432F-9A1A-C26B3BB1E375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{712EBE69-1C48-48D5-98E6-F3C1B97CBE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98721C4C-87E1-4101-A6EA-EA9A8A922E71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C3990861-5FCC-4A7B-8E19-9F360DA9392A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="678">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>14,39%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,1905 +137,1899 @@
     <t>3,43%</t>
   </si>
   <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>13,47%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>11,63%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>89,3%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2015 (Tasa respuesta: 99,18%)</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
     <t>91,52%</t>
   </si>
   <si>
@@ -2073,9 +2067,6 @@
   </si>
   <si>
     <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
   </si>
   <si>
     <t>1,7%</t>
@@ -2493,7 +2484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D8BA26-E4F4-4BCD-ABE4-4B05137D3219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7CDAE0-5EF5-481A-BBD7-8063E181077E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2958,10 +2949,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,7 +3008,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3029,13 +3020,13 @@
         <v>520850</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>535</v>
@@ -3044,13 +3035,13 @@
         <v>559623</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1037</v>
@@ -3059,13 +3050,13 @@
         <v>1080474</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3071,13 @@
         <v>91422</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -3095,13 +3086,13 @@
         <v>101618</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>184</v>
@@ -3110,13 +3101,13 @@
         <v>193041</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3122,13 @@
         <v>21245</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -3146,13 +3137,13 @@
         <v>25263</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -3161,13 +3152,13 @@
         <v>46508</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3214,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3235,13 +3226,13 @@
         <v>426108</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>407</v>
@@ -3250,13 +3241,13 @@
         <v>415584</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>805</v>
@@ -3265,13 +3256,13 @@
         <v>841692</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3277,13 @@
         <v>81638</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -3301,13 +3292,13 @@
         <v>81601</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -3316,13 +3307,13 @@
         <v>163239</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3328,13 @@
         <v>10406</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -3352,13 +3343,13 @@
         <v>13331</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -3367,13 +3358,13 @@
         <v>23737</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,7 +3420,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3441,13 +3432,13 @@
         <v>309631</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>327</v>
@@ -3456,13 +3447,13 @@
         <v>332355</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -3471,13 +3462,13 @@
         <v>641986</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3483,13 @@
         <v>61013</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
@@ -3507,13 +3498,13 @@
         <v>56949</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>118</v>
@@ -3522,13 +3513,13 @@
         <v>117962</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3534,13 @@
         <v>12838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3558,13 +3549,13 @@
         <v>12675</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -3573,13 +3564,13 @@
         <v>25513</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3626,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3647,13 +3638,13 @@
         <v>420879</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>558</v>
@@ -3662,7 +3653,7 @@
         <v>569542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>155</v>
@@ -3749,7 +3740,7 @@
         <v>9692</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>169</v>
@@ -3868,13 +3859,13 @@
         <v>2757525</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>5335</v>
@@ -3883,13 +3874,13 @@
         <v>5442386</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3895,13 @@
         <v>475385</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H29" s="7">
         <v>483</v>
@@ -3919,13 +3910,13 @@
         <v>505726</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>952</v>
@@ -3934,13 +3925,13 @@
         <v>981111</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3946,13 @@
         <v>89789</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>94</v>
@@ -3970,10 +3961,10 @@
         <v>98197</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>197</v>
@@ -4069,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B10B038-927D-4DD5-9717-D4D3C29B909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EAD5ED-A21D-431E-8625-9AA5B77371E6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4193,10 +4184,10 @@
         <v>390936</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>204</v>
@@ -4301,7 +4292,7 @@
         <v>221</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4328,10 +4319,10 @@
         <v>225</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4390,13 @@
         <v>593823</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4414,13 +4405,13 @@
         <v>524591</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>1070</v>
@@ -4429,13 +4420,13 @@
         <v>1118415</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4441,13 @@
         <v>71361</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H9" s="7">
         <v>65</v>
@@ -4465,13 +4456,13 @@
         <v>71237</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -4480,13 +4471,13 @@
         <v>142598</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4492,13 @@
         <v>16250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4516,13 +4507,13 @@
         <v>9411</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -4531,13 +4522,13 @@
         <v>25660</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,7 +4584,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4605,13 +4596,13 @@
         <v>584474</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>567</v>
@@ -4620,13 +4611,13 @@
         <v>605405</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>1128</v>
@@ -4671,7 +4662,7 @@
         <v>77783</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>264</v>
@@ -4686,13 +4677,13 @@
         <v>150928</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4698,13 @@
         <v>19470</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -4722,13 +4713,13 @@
         <v>18730</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -4740,10 +4731,10 @@
         <v>37</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,7 +4790,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4811,13 +4802,13 @@
         <v>524829</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>468</v>
@@ -4826,13 +4817,13 @@
         <v>534734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>938</v>
@@ -4841,13 +4832,13 @@
         <v>1059562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4853,13 @@
         <v>65381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -4877,13 +4868,13 @@
         <v>64052</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -4892,13 +4883,13 @@
         <v>129433</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4904,13 @@
         <v>20352</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -4928,13 +4919,13 @@
         <v>10923</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -4943,13 +4934,13 @@
         <v>31275</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +4996,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5017,13 +5008,13 @@
         <v>382278</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>337</v>
@@ -5032,13 +5023,13 @@
         <v>369565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>686</v>
@@ -5047,13 +5038,13 @@
         <v>751843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5059,13 @@
         <v>37893</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -5083,13 +5074,13 @@
         <v>54794</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M21" s="7">
         <v>83</v>
@@ -5098,13 +5089,13 @@
         <v>92687</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5110,13 @@
         <v>7197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5134,13 +5125,13 @@
         <v>12212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5149,13 +5140,13 @@
         <v>19408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,7 +5202,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5223,13 +5214,13 @@
         <v>504648</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>608</v>
@@ -5238,13 +5229,13 @@
         <v>653836</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
         <v>1063</v>
@@ -5253,13 +5244,13 @@
         <v>1158482</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5265,13 @@
         <v>41633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -5289,13 +5280,13 @@
         <v>63216</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>98</v>
@@ -5304,13 +5295,13 @@
         <v>104849</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5316,13 @@
         <v>9200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5340,13 +5331,13 @@
         <v>15005</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -5355,13 +5346,13 @@
         <v>24205</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5420,13 @@
         <v>2980987</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H28" s="7">
         <v>2846</v>
@@ -5444,13 +5435,13 @@
         <v>3069236</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M28" s="7">
         <v>5642</v>
@@ -5459,13 +5450,13 @@
         <v>6050223</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5471,13 @@
         <v>340515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H29" s="7">
         <v>340</v>
@@ -5495,13 +5486,13 @@
         <v>367910</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="M29" s="7">
         <v>658</v>
@@ -5510,13 +5501,13 @@
         <v>708425</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5522,13 @@
         <v>79654</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H30" s="7">
         <v>67</v>
@@ -5546,13 +5537,13 @@
         <v>73704</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M30" s="7">
         <v>139</v>
@@ -5564,10 +5555,10 @@
         <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>119</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,7 +5636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144C6CDB-C249-4833-8789-3B772FF0AE15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03A3DCD-38DB-48A2-B9FD-3265844744E2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5662,7 +5653,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5769,13 +5760,13 @@
         <v>361763</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H4" s="7">
         <v>326</v>
@@ -5784,13 +5775,13 @@
         <v>316848</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M4" s="7">
         <v>667</v>
@@ -5799,13 +5790,13 @@
         <v>678611</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5811,13 @@
         <v>44361</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -5835,13 +5826,13 @@
         <v>53650</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M5" s="7">
         <v>94</v>
@@ -5850,13 +5841,13 @@
         <v>98010</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>392</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5862,13 @@
         <v>9133</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>393</v>
+        <v>148</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>394</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5886,13 +5877,13 @@
         <v>21421</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -5901,13 +5892,13 @@
         <v>30554</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5966,13 @@
         <v>483737</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -5990,13 +5981,13 @@
         <v>459814</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -6005,13 +5996,13 @@
         <v>943551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6017,13 @@
         <v>78841</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H9" s="7">
         <v>77</v>
@@ -6041,13 +6032,13 @@
         <v>75843</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>407</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>410</v>
+        <v>86</v>
       </c>
       <c r="M9" s="7">
         <v>152</v>
@@ -6056,13 +6047,13 @@
         <v>154683</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>408</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>211</v>
+        <v>409</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6068,13 @@
         <v>23999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -6092,13 +6083,13 @@
         <v>26342</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6107,13 +6098,13 @@
         <v>50341</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,7 +6160,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6181,13 +6172,13 @@
         <v>569378</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H12" s="7">
         <v>560</v>
@@ -6196,13 +6187,13 @@
         <v>553558</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>423</v>
+        <v>278</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>422</v>
       </c>
       <c r="M12" s="7">
         <v>1103</v>
@@ -6211,13 +6202,13 @@
         <v>1122936</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6223,13 @@
         <v>80540</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -6247,13 +6238,13 @@
         <v>84385</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
@@ -6262,13 +6253,13 @@
         <v>164925</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>435</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>436</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6274,13 @@
         <v>15000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -6298,13 +6289,13 @@
         <v>19341</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -6313,13 +6304,13 @@
         <v>34341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>441</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,7 +6366,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6387,13 +6378,13 @@
         <v>538235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H16" s="7">
         <v>509</v>
@@ -6402,28 +6393,28 @@
         <v>547326</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>992</v>
       </c>
       <c r="N16" s="7">
-        <v>1085562</v>
+        <v>1085561</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6429,13 @@
         <v>79811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -6453,13 +6444,13 @@
         <v>67615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>455</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>58</v>
+        <v>451</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -6468,13 +6459,13 @@
         <v>147426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>458</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6480,13 @@
         <v>19308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>225</v>
+        <v>455</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -6504,13 +6495,13 @@
         <v>26527</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -6519,13 +6510,13 @@
         <v>45835</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>461</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,7 +6558,7 @@
         <v>1170</v>
       </c>
       <c r="N19" s="7">
-        <v>1278823</v>
+        <v>1278822</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6581,7 +6572,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6593,13 +6584,13 @@
         <v>396034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>463</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H20" s="7">
         <v>361</v>
@@ -6608,13 +6599,13 @@
         <v>412559</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -6623,13 +6614,13 @@
         <v>808593</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6635,13 @@
         <v>57401</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>474</v>
+        <v>312</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H21" s="7">
         <v>49</v>
@@ -6659,13 +6650,13 @@
         <v>57947</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M21" s="7">
         <v>99</v>
@@ -6674,13 +6665,13 @@
         <v>115348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6686,13 @@
         <v>22270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -6710,13 +6701,13 @@
         <v>21816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -6725,13 +6716,13 @@
         <v>44086</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,7 +6778,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6799,13 +6790,13 @@
         <v>503442</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H24" s="7">
         <v>551</v>
@@ -6814,13 +6805,13 @@
         <v>653881</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M24" s="7">
         <v>1087</v>
@@ -6829,13 +6820,13 @@
         <v>1157323</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6841,13 @@
         <v>63748</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>497</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -6865,13 +6856,13 @@
         <v>93893</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -6880,13 +6871,13 @@
         <v>157640</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>80</v>
+        <v>498</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6892,13 @@
         <v>19809</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>503</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6916,13 +6907,13 @@
         <v>21050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>61</v>
+        <v>504</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>68</v>
+        <v>505</v>
       </c>
       <c r="M26" s="7">
         <v>38</v>
@@ -6931,13 +6922,13 @@
         <v>40858</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +6996,13 @@
         <v>2852589</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H28" s="7">
         <v>2781</v>
@@ -7020,13 +7011,13 @@
         <v>2943986</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M28" s="7">
         <v>5503</v>
@@ -7035,13 +7026,13 @@
         <v>5796576</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7047,13 @@
         <v>404701</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>516</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H29" s="7">
         <v>403</v>
@@ -7071,13 +7062,13 @@
         <v>433332</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>786</v>
@@ -7107,13 +7098,13 @@
         <v>109518</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>372</v>
+        <v>525</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H30" s="7">
         <v>127</v>
@@ -7122,13 +7113,13 @@
         <v>136497</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>528</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M30" s="7">
         <v>226</v>
@@ -7137,13 +7128,13 @@
         <v>246015</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>530</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>528</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,7 +7212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DD7DEB-858E-478F-A131-CE06ED970A55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F6FCA7-6C43-487D-8A19-657A3CDB7489}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7238,7 +7229,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7345,13 +7336,13 @@
         <v>349340</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H4" s="7">
         <v>183</v>
@@ -7360,13 +7351,13 @@
         <v>311877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M4" s="7">
         <v>344</v>
@@ -7375,13 +7366,13 @@
         <v>661218</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7387,13 @@
         <v>15881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -7411,13 +7402,13 @@
         <v>33732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -7426,13 +7417,13 @@
         <v>49613</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7438,13 @@
         <v>9016</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -7462,13 +7453,13 @@
         <v>9027</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -7477,13 +7468,13 @@
         <v>18043</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7542,13 @@
         <v>384136</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H8" s="7">
         <v>423</v>
@@ -7566,13 +7557,13 @@
         <v>455680</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="M8" s="7">
         <v>694</v>
@@ -7581,13 +7572,13 @@
         <v>839816</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7593,13 @@
         <v>34854</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>83</v>
+        <v>516</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -7617,13 +7608,13 @@
         <v>36075</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -7653,7 +7644,7 @@
         <v>9406</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>393</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>568</v>
@@ -7668,13 +7659,13 @@
         <v>7301</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>571</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>572</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -7683,13 +7674,13 @@
         <v>16707</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>435</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>571</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>573</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,7 +7736,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7757,13 +7748,13 @@
         <v>499221</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="H12" s="7">
         <v>766</v>
@@ -7772,13 +7763,13 @@
         <v>552424</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>578</v>
+        <v>234</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M12" s="7">
         <v>1258</v>
@@ -7787,13 +7778,13 @@
         <v>1051646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7799,13 @@
         <v>42882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>584</v>
+        <v>417</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -7823,13 +7814,13 @@
         <v>39983</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>416</v>
+        <v>582</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>586</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>583</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -7838,13 +7829,13 @@
         <v>82865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7850,13 @@
         <v>12595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -7874,13 +7865,13 @@
         <v>14987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>594</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -7889,13 +7880,13 @@
         <v>27581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>596</v>
+        <v>504</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,7 +7942,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7963,13 +7954,13 @@
         <v>660875</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H16" s="7">
         <v>1020</v>
@@ -7978,13 +7969,13 @@
         <v>669240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="M16" s="7">
         <v>1622</v>
@@ -7993,13 +7984,13 @@
         <v>1330115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8005,13 @@
         <v>44691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -8029,13 +8020,13 @@
         <v>57546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>605</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -8044,13 +8035,13 @@
         <v>102237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>614</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8056,13 @@
         <v>14782</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>615</v>
+        <v>170</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -8080,13 +8071,13 @@
         <v>15834</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>504</v>
+        <v>610</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>415</v>
+        <v>528</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -8095,10 +8086,10 @@
         <v>30616</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>612</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>570</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>66</v>
@@ -8157,7 +8148,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8169,13 +8160,13 @@
         <v>539217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>614</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H20" s="7">
         <v>890</v>
@@ -8184,13 +8175,13 @@
         <v>529939</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M20" s="7">
         <v>1487</v>
@@ -8199,13 +8190,13 @@
         <v>1069156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8211,13 @@
         <v>44698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>623</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H21" s="7">
         <v>82</v>
@@ -8235,13 +8226,13 @@
         <v>47387</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="M21" s="7">
         <v>133</v>
@@ -8250,13 +8241,13 @@
         <v>92085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>385</v>
+        <v>605</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8262,13 @@
         <v>10307</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -8286,13 +8277,13 @@
         <v>16213</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>634</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -8301,13 +8292,13 @@
         <v>26519</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>637</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,7 +8354,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8375,13 +8366,13 @@
         <v>637310</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="H24" s="7">
         <v>1532</v>
@@ -8390,13 +8381,13 @@
         <v>926720</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>643</v>
       </c>
       <c r="M24" s="7">
         <v>2471</v>
@@ -8405,13 +8396,13 @@
         <v>1564030</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8417,13 @@
         <v>49704</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>648</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>649</v>
+        <v>264</v>
       </c>
       <c r="H25" s="7">
         <v>123</v>
@@ -8441,13 +8432,13 @@
         <v>70812</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>652</v>
       </c>
       <c r="M25" s="7">
         <v>196</v>
@@ -8456,13 +8447,13 @@
         <v>120516</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>653</v>
+        <v>480</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8477,13 +8468,13 @@
         <v>9507</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>568</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -8492,13 +8483,13 @@
         <v>16784</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>46</v>
@@ -8507,13 +8498,13 @@
         <v>26291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8581,13 +8572,13 @@
         <v>3070101</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H28" s="7">
         <v>4814</v>
@@ -8596,13 +8587,13 @@
         <v>3445879</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>233</v>
+        <v>662</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M28" s="7">
         <v>7876</v>
@@ -8611,13 +8602,13 @@
         <v>6515980</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8623,13 @@
         <v>232710</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>670</v>
       </c>
       <c r="H29" s="7">
         <v>401</v>
@@ -8647,13 +8638,13 @@
         <v>285535</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M29" s="7">
         <v>641</v>
@@ -8662,13 +8653,13 @@
         <v>518245</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8683,13 +8674,13 @@
         <v>65613</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -8698,13 +8689,13 @@
         <v>80144</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>225</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>95</v>
+        <v>437</v>
       </c>
       <c r="M30" s="7">
         <v>170</v>
@@ -8713,13 +8704,13 @@
         <v>145757</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>678</v>
+        <v>64</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P05A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{712EBE69-1C48-48D5-98E6-F3C1B97CBE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6C83B32-8560-44E6-BF82-61F1C833428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C3990861-5FCC-4A7B-8E19-9F360DA9392A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F87484D9-7D1B-4029-ACEE-356995A7764A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="679">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,1972 +107,1975 @@
     <t>14,39%</t>
   </si>
   <si>
-    <t>11,28%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
     <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7CDAE0-5EF5-481A-BBD7-8063E181077E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEFDCCC-3E2A-46DC-A5CC-C9F7E87F222E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2788,7 +2791,7 @@
         <v>979</v>
       </c>
       <c r="N7" s="7">
-        <v>952723</v>
+        <v>952724</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2934,10 +2937,10 @@
         <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -2946,13 +2949,13 @@
         <v>39838</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,7 +3011,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3020,13 +3023,13 @@
         <v>520850</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>535</v>
@@ -3035,13 +3038,13 @@
         <v>559623</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>1037</v>
@@ -3050,13 +3053,13 @@
         <v>1080474</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3074,13 @@
         <v>91422</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -3086,13 +3089,13 @@
         <v>101618</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>184</v>
@@ -3101,13 +3104,13 @@
         <v>193041</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3125,13 @@
         <v>21245</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -3137,13 +3140,13 @@
         <v>25263</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -3152,13 +3155,13 @@
         <v>46508</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,7 +3217,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3226,10 +3229,10 @@
         <v>426108</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>98</v>
@@ -3280,10 +3283,10 @@
         <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -3292,13 +3295,13 @@
         <v>81601</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -3307,13 +3310,13 @@
         <v>163239</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3331,13 @@
         <v>10406</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -3343,13 +3346,13 @@
         <v>13331</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -3358,13 +3361,13 @@
         <v>23737</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,7 +3423,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3432,13 +3435,13 @@
         <v>309631</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>327</v>
@@ -3447,13 +3450,13 @@
         <v>332355</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -3462,13 +3465,13 @@
         <v>641986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3486,13 @@
         <v>61013</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
@@ -3498,13 +3501,13 @@
         <v>56949</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>118</v>
@@ -3513,13 +3516,13 @@
         <v>117962</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3537,13 @@
         <v>12838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3549,13 +3552,13 @@
         <v>12675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -3564,13 +3567,13 @@
         <v>25513</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,7 +3629,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3638,13 +3641,13 @@
         <v>420879</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>558</v>
@@ -3653,13 +3656,13 @@
         <v>569542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>996</v>
@@ -3668,13 +3671,13 @@
         <v>990422</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3692,13 @@
         <v>67798</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>85</v>
@@ -3704,13 +3707,13 @@
         <v>88799</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7">
         <v>156</v>
@@ -3719,13 +3722,13 @@
         <v>156597</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3743,13 @@
         <v>9692</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -3755,13 +3758,13 @@
         <v>16352</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -3770,13 +3773,13 @@
         <v>26045</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3847,13 @@
         <v>2684860</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>2703</v>
@@ -3859,13 +3862,13 @@
         <v>2757525</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>5335</v>
@@ -3874,13 +3877,13 @@
         <v>5442386</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3898,13 @@
         <v>475385</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>483</v>
@@ -3910,13 +3913,13 @@
         <v>505726</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>952</v>
@@ -3925,13 +3928,13 @@
         <v>981111</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3949,13 @@
         <v>89789</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="H30" s="7">
         <v>94</v>
@@ -3961,13 +3964,13 @@
         <v>98197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>182</v>
@@ -3976,13 +3979,13 @@
         <v>187986</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,7 +4041,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EAD5ED-A21D-431E-8625-9AA5B77371E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739911E1-33BF-4F2C-860F-461113B3035A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +4080,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4184,13 +4187,13 @@
         <v>390936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>374</v>
@@ -4199,13 +4202,13 @@
         <v>381105</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>757</v>
@@ -4214,13 +4217,13 @@
         <v>772041</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4238,13 @@
         <v>51101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -4250,13 +4253,13 @@
         <v>36828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>87</v>
@@ -4265,13 +4268,13 @@
         <v>87930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4289,13 @@
         <v>7186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4301,13 +4304,13 @@
         <v>7424</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4316,13 +4319,13 @@
         <v>14610</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4393,13 @@
         <v>593823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4405,13 +4408,13 @@
         <v>524591</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>1070</v>
@@ -4420,13 +4423,13 @@
         <v>1118415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4444,13 @@
         <v>71361</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H9" s="7">
         <v>65</v>
@@ -4456,13 +4459,13 @@
         <v>71237</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -4471,13 +4474,13 @@
         <v>142598</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4495,13 @@
         <v>16250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4507,13 +4510,13 @@
         <v>9411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -4522,13 +4525,13 @@
         <v>25660</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,7 +4587,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4596,13 +4599,13 @@
         <v>584474</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>567</v>
@@ -4611,13 +4614,13 @@
         <v>605405</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>1128</v>
@@ -4626,13 +4629,13 @@
         <v>1189879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4650,13 @@
         <v>73145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -4662,13 +4665,13 @@
         <v>77783</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>144</v>
@@ -4677,13 +4680,13 @@
         <v>150928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4701,13 @@
         <v>19470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -4713,13 +4716,13 @@
         <v>18730</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -4731,10 +4734,10 @@
         <v>37</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,7 +4793,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4802,13 +4805,13 @@
         <v>524829</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>468</v>
@@ -4817,13 +4820,13 @@
         <v>534734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>938</v>
@@ -4832,13 +4835,13 @@
         <v>1059562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4856,13 @@
         <v>65381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -4868,13 +4871,13 @@
         <v>64052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -4883,13 +4886,13 @@
         <v>129433</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4907,13 @@
         <v>20352</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -4919,13 +4922,13 @@
         <v>10923</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -4934,13 +4937,13 @@
         <v>31275</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,7 +4999,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5008,13 +5011,13 @@
         <v>382278</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
         <v>337</v>
@@ -5023,13 +5026,13 @@
         <v>369565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>686</v>
@@ -5038,13 +5041,13 @@
         <v>751843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5062,13 @@
         <v>37893</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -5074,13 +5077,13 @@
         <v>54794</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M21" s="7">
         <v>83</v>
@@ -5089,13 +5092,13 @@
         <v>92687</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5113,13 @@
         <v>7197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5125,13 +5128,13 @@
         <v>12212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5140,13 +5143,13 @@
         <v>19408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5205,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5214,13 +5217,13 @@
         <v>504648</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7">
         <v>608</v>
@@ -5229,13 +5232,13 @@
         <v>653836</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>1063</v>
@@ -5244,13 +5247,13 @@
         <v>1158482</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5268,13 @@
         <v>41633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -5280,13 +5283,13 @@
         <v>63216</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>98</v>
@@ -5295,13 +5298,13 @@
         <v>104849</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5319,13 @@
         <v>9200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5331,13 +5334,13 @@
         <v>15005</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -5346,13 +5349,13 @@
         <v>24205</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5423,13 @@
         <v>2980987</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H28" s="7">
         <v>2846</v>
@@ -5435,13 +5438,13 @@
         <v>3069236</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M28" s="7">
         <v>5642</v>
@@ -5450,13 +5453,13 @@
         <v>6050223</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5474,13 @@
         <v>340515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H29" s="7">
         <v>340</v>
@@ -5486,13 +5489,13 @@
         <v>367910</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M29" s="7">
         <v>658</v>
@@ -5501,13 +5504,13 @@
         <v>708425</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>365</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5525,13 @@
         <v>79654</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>367</v>
+        <v>288</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="H30" s="7">
         <v>67</v>
@@ -5537,13 +5540,13 @@
         <v>73704</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>369</v>
+        <v>142</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M30" s="7">
         <v>139</v>
@@ -5552,13 +5555,13 @@
         <v>153357</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,7 +5617,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5636,7 +5639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03A3DCD-38DB-48A2-B9FD-3265844744E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E63C5-01C8-4E08-A7A7-47B929F6384C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5653,7 +5656,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5760,13 +5763,13 @@
         <v>361763</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>326</v>
@@ -5775,13 +5778,13 @@
         <v>316848</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>667</v>
@@ -5790,13 +5793,13 @@
         <v>678611</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5814,13 @@
         <v>44361</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -5826,13 +5829,13 @@
         <v>53650</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="M5" s="7">
         <v>94</v>
@@ -5841,13 +5844,13 @@
         <v>98010</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5865,13 @@
         <v>9133</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5877,13 +5880,13 @@
         <v>21421</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -5892,13 +5895,13 @@
         <v>30554</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>387</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5969,13 @@
         <v>483737</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -5984,10 +5987,10 @@
         <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -5996,13 +5999,13 @@
         <v>943551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6020,13 @@
         <v>78841</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>186</v>
+        <v>397</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H9" s="7">
         <v>77</v>
@@ -6032,13 +6035,13 @@
         <v>75843</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>86</v>
+        <v>402</v>
       </c>
       <c r="M9" s="7">
         <v>152</v>
@@ -6047,13 +6050,13 @@
         <v>154683</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6071,13 @@
         <v>23999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>407</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -6083,13 +6086,13 @@
         <v>26342</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6098,13 +6101,13 @@
         <v>50341</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,7 +6163,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6172,13 +6175,13 @@
         <v>569378</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H12" s="7">
         <v>560</v>
@@ -6187,13 +6190,13 @@
         <v>553558</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>278</v>
+        <v>416</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>1103</v>
@@ -6202,13 +6205,13 @@
         <v>1122936</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6226,13 @@
         <v>80540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>303</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -6238,13 +6241,13 @@
         <v>84385</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
@@ -6253,13 +6256,13 @@
         <v>164925</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6277,13 @@
         <v>15000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -6289,13 +6292,13 @@
         <v>19341</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>431</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -6304,13 +6307,13 @@
         <v>34341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +6369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6378,13 +6381,13 @@
         <v>538235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H16" s="7">
         <v>509</v>
@@ -6393,28 +6396,28 @@
         <v>547326</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>992</v>
       </c>
       <c r="N16" s="7">
-        <v>1085561</v>
+        <v>1085562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6432,13 @@
         <v>79811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -6444,13 +6447,13 @@
         <v>67615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>444</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -6459,13 +6462,13 @@
         <v>147426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>452</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6483,13 @@
         <v>19308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>455</v>
+        <v>139</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -6495,13 +6498,13 @@
         <v>26527</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>458</v>
+        <v>191</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -6510,13 +6513,13 @@
         <v>45835</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>460</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,7 +6561,7 @@
         <v>1170</v>
       </c>
       <c r="N19" s="7">
-        <v>1278822</v>
+        <v>1278823</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6572,7 +6575,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6584,13 +6587,13 @@
         <v>396034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="H20" s="7">
         <v>361</v>
@@ -6599,13 +6602,13 @@
         <v>412559</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -6614,13 +6617,13 @@
         <v>808593</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6638,13 @@
         <v>57401</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>312</v>
+        <v>464</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H21" s="7">
         <v>49</v>
@@ -6650,13 +6653,13 @@
         <v>57947</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>473</v>
+        <v>256</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M21" s="7">
         <v>99</v>
@@ -6665,13 +6668,13 @@
         <v>115348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>476</v>
+        <v>332</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6689,13 @@
         <v>22270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -6701,13 +6704,13 @@
         <v>21816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>472</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -6716,13 +6719,13 @@
         <v>44086</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,7 +6781,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6790,13 +6793,13 @@
         <v>503442</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H24" s="7">
         <v>551</v>
@@ -6805,13 +6808,13 @@
         <v>653881</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="M24" s="7">
         <v>1087</v>
@@ -6820,13 +6823,13 @@
         <v>1157323</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6844,13 @@
         <v>63748</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -6856,13 +6859,13 @@
         <v>93893</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -6871,13 +6874,13 @@
         <v>157640</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6895,13 @@
         <v>19809</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>393</v>
+        <v>494</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>501</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6907,13 +6910,13 @@
         <v>21050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>504</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="M26" s="7">
         <v>38</v>
@@ -6922,13 +6925,13 @@
         <v>40858</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>341</v>
+        <v>498</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +6999,13 @@
         <v>2852589</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>363</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H28" s="7">
         <v>2781</v>
@@ -7011,13 +7014,13 @@
         <v>2943986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>511</v>
+        <v>389</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="M28" s="7">
         <v>5503</v>
@@ -7026,13 +7029,13 @@
         <v>5796576</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7050,13 @@
         <v>404701</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="H29" s="7">
         <v>403</v>
@@ -7062,13 +7065,13 @@
         <v>433332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="M29" s="7">
         <v>786</v>
@@ -7077,13 +7080,13 @@
         <v>838033</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7101,13 @@
         <v>109518</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>525</v>
+        <v>359</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="H30" s="7">
         <v>127</v>
@@ -7113,13 +7116,13 @@
         <v>136497</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="M30" s="7">
         <v>226</v>
@@ -7128,13 +7131,13 @@
         <v>246015</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>460</v>
+        <v>314</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>67</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,7 +7193,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -7212,7 +7215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F6FCA7-6C43-487D-8A19-657A3CDB7489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EBDF07-F282-4DBA-B859-20C4EB8B9580}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7229,7 +7232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7336,13 +7339,13 @@
         <v>349340</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="H4" s="7">
         <v>183</v>
@@ -7351,13 +7354,13 @@
         <v>311877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>527</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M4" s="7">
         <v>344</v>
@@ -7366,13 +7369,13 @@
         <v>661218</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,13 +7390,13 @@
         <v>15881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>533</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -7402,13 +7405,13 @@
         <v>33732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -7417,13 +7420,13 @@
         <v>49613</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>272</v>
+        <v>539</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,13 +7441,13 @@
         <v>9016</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>91</v>
+        <v>541</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -7453,13 +7456,13 @@
         <v>9027</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -7468,13 +7471,13 @@
         <v>18043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>552</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7545,13 @@
         <v>384136</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H8" s="7">
         <v>423</v>
@@ -7557,13 +7560,13 @@
         <v>455680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M8" s="7">
         <v>694</v>
@@ -7572,13 +7575,13 @@
         <v>839816</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7596,13 @@
         <v>34854</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>561</v>
+        <v>325</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -7608,13 +7611,13 @@
         <v>36075</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -7623,13 +7626,13 @@
         <v>70929</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>567</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7647,13 @@
         <v>9406</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -7659,13 +7662,13 @@
         <v>7301</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>518</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -7674,13 +7677,13 @@
         <v>16707</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>567</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,7 +7739,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7748,13 +7751,13 @@
         <v>499221</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H12" s="7">
         <v>766</v>
@@ -7763,13 +7766,13 @@
         <v>552424</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>573</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M12" s="7">
         <v>1258</v>
@@ -7778,13 +7781,13 @@
         <v>1051646</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7802,13 @@
         <v>42882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>417</v>
+        <v>579</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>581</v>
+        <v>427</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -7814,13 +7817,13 @@
         <v>39983</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>582</v>
+        <v>476</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>583</v>
+        <v>486</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -7829,13 +7832,13 @@
         <v>82865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7853,13 @@
         <v>12595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -7865,13 +7868,13 @@
         <v>14987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -7880,13 +7883,13 @@
         <v>27581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>504</v>
+        <v>589</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>592</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,7 +7945,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7954,13 +7957,13 @@
         <v>660875</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H16" s="7">
         <v>1020</v>
@@ -7969,13 +7972,13 @@
         <v>669240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M16" s="7">
         <v>1622</v>
@@ -7984,13 +7987,13 @@
         <v>1330115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8008,13 @@
         <v>44691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -8020,13 +8023,13 @@
         <v>57546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -8035,13 +8038,13 @@
         <v>102237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8059,13 @@
         <v>14782</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>475</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -8071,13 +8074,13 @@
         <v>15834</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -8086,13 +8089,13 @@
         <v>30616</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>66</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,7 +8151,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8160,13 +8163,13 @@
         <v>539217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H20" s="7">
         <v>890</v>
@@ -8175,13 +8178,13 @@
         <v>529939</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>618</v>
+        <v>572</v>
       </c>
       <c r="M20" s="7">
         <v>1487</v>
@@ -8241,7 +8244,7 @@
         <v>92085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>628</v>
@@ -8283,7 +8286,7 @@
         <v>634</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>635</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -8292,13 +8295,13 @@
         <v>26519</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>635</v>
+        <v>499</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>636</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,7 +8357,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8366,10 +8369,10 @@
         <v>637310</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>638</v>
+        <v>549</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>639</v>
@@ -8402,7 +8405,7 @@
         <v>644</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>645</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8417,13 +8420,13 @@
         <v>49704</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H25" s="7">
         <v>123</v>
@@ -8435,10 +8438,10 @@
         <v>648</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="M25" s="7">
         <v>196</v>
@@ -8447,7 +8450,7 @@
         <v>120516</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>480</v>
+        <v>650</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>651</v>
@@ -8471,10 +8474,10 @@
         <v>653</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>568</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -8483,13 +8486,13 @@
         <v>16784</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>655</v>
+        <v>381</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>656</v>
       </c>
       <c r="M26" s="7">
         <v>46</v>
@@ -8498,13 +8501,13 @@
         <v>26291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>656</v>
+        <v>61</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>657</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>658</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,13 +8575,13 @@
         <v>3070101</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>660</v>
       </c>
       <c r="H28" s="7">
         <v>4814</v>
@@ -8587,28 +8590,28 @@
         <v>3445879</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="M28" s="7">
         <v>7876</v>
       </c>
       <c r="N28" s="7">
-        <v>6515980</v>
+        <v>6515981</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8638,13 +8641,13 @@
         <v>285535</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>669</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>540</v>
+        <v>670</v>
       </c>
       <c r="M29" s="7">
         <v>641</v>
@@ -8653,13 +8656,13 @@
         <v>518245</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8674,13 +8677,13 @@
         <v>65613</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -8689,13 +8692,13 @@
         <v>80144</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>437</v>
+        <v>93</v>
       </c>
       <c r="M30" s="7">
         <v>170</v>
@@ -8704,13 +8707,13 @@
         <v>145757</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>64</v>
+        <v>677</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>677</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8752,7 +8755,7 @@
         <v>8687</v>
       </c>
       <c r="N31" s="7">
-        <v>7179983</v>
+        <v>7179984</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -8766,7 +8769,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6C83B32-8560-44E6-BF82-61F1C833428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70390223-E91A-440E-92BD-E70A79515919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F87484D9-7D1B-4029-ACEE-356995A7764A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{88D39F91-7D0F-4FA6-8668-B3C09FFE2B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="753">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nada</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>83,23%</t>
@@ -242,7 +242,7 @@
     <t>4,18%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>82,22%</t>
@@ -326,7 +326,7 @@
     <t>4,71%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>82,24%</t>
@@ -401,7 +401,7 @@
     <t>3,44%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>80,74%</t>
@@ -479,1603 +479,1825 @@
     <t>4,64%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
 </sst>
 </file>
@@ -2487,8 +2709,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEFDCCC-3E2A-46DC-A5CC-C9F7E87F222E}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C19B56-C7C1-4833-B64C-CA0373451C7A}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2791,7 +3013,7 @@
         <v>979</v>
       </c>
       <c r="N7" s="7">
-        <v>952724</v>
+        <v>952723</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3635,10 +3857,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>438</v>
+        <v>254</v>
       </c>
       <c r="D24" s="7">
-        <v>420879</v>
+        <v>244820</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>147</v>
@@ -3650,10 +3872,10 @@
         <v>149</v>
       </c>
       <c r="H24" s="7">
-        <v>558</v>
+        <v>314</v>
       </c>
       <c r="I24" s="7">
-        <v>569542</v>
+        <v>289476</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>150</v>
@@ -3662,22 +3884,22 @@
         <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" s="7">
+        <v>568</v>
+      </c>
+      <c r="N24" s="7">
+        <v>534296</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="M24" s="7">
-        <v>996</v>
-      </c>
-      <c r="N24" s="7">
-        <v>990422</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,25 +3908,25 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>67798</v>
+        <v>37360</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="H25" s="7">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="I25" s="7">
-        <v>88799</v>
+        <v>41891</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>158</v>
@@ -3713,22 +3935,22 @@
         <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="N25" s="7">
-        <v>156597</v>
+        <v>79251</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,49 +3959,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>9692</v>
+        <v>8071</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>16352</v>
+        <v>10585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N26" s="7">
-        <v>26045</v>
+        <v>18656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,10 +4010,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>519</v>
+        <v>301</v>
       </c>
       <c r="D27" s="7">
-        <v>498370</v>
+        <v>290251</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3803,10 +4025,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>659</v>
+        <v>370</v>
       </c>
       <c r="I27" s="7">
-        <v>674693</v>
+        <v>341952</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3818,10 +4040,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1178</v>
+        <v>671</v>
       </c>
       <c r="N27" s="7">
-        <v>1173063</v>
+        <v>632203</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3835,55 +4057,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2632</v>
+        <v>184</v>
       </c>
       <c r="D28" s="7">
-        <v>2684860</v>
+        <v>176059</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
-        <v>2703</v>
+        <v>244</v>
       </c>
       <c r="I28" s="7">
-        <v>2757525</v>
+        <v>280066</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
-        <v>5335</v>
+        <v>428</v>
       </c>
       <c r="N28" s="7">
-        <v>5442386</v>
+        <v>456125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,49 +4114,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>469</v>
+        <v>32</v>
       </c>
       <c r="D29" s="7">
-        <v>475385</v>
+        <v>30438</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
-        <v>483</v>
+        <v>40</v>
       </c>
       <c r="I29" s="7">
-        <v>505726</v>
+        <v>46908</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
-        <v>952</v>
+        <v>72</v>
       </c>
       <c r="N29" s="7">
-        <v>981111</v>
+        <v>77346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,49 +4165,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>89789</v>
+        <v>1622</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>98197</v>
+        <v>5767</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="N30" s="7">
-        <v>187986</v>
+        <v>7389</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,63 +4216,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>218</v>
+      </c>
+      <c r="D31" s="7">
+        <v>208119</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>289</v>
+      </c>
+      <c r="I31" s="7">
+        <v>332741</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>507</v>
+      </c>
+      <c r="N31" s="7">
+        <v>540860</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2632</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2684860</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2703</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2757525</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5335</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5442386</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>469</v>
+      </c>
+      <c r="D33" s="7">
+        <v>475385</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="7">
+        <v>483</v>
+      </c>
+      <c r="I33" s="7">
+        <v>505726</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M33" s="7">
+        <v>952</v>
+      </c>
+      <c r="N33" s="7">
+        <v>981111</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>88</v>
+      </c>
+      <c r="D34" s="7">
+        <v>89789</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="7">
+        <v>94</v>
+      </c>
+      <c r="I34" s="7">
+        <v>98197</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M34" s="7">
+        <v>182</v>
+      </c>
+      <c r="N34" s="7">
+        <v>187986</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3189</v>
       </c>
-      <c r="D31" s="7">
-        <v>3250034</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3250035</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3280</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3361448</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6469</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6611483</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>194</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4063,8 +4492,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739911E1-33BF-4F2C-860F-461113B3035A}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291601E8-BD91-4079-9CEE-0BC53AB02338}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4080,7 +4509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4187,13 +4616,13 @@
         <v>390936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>374</v>
@@ -4202,13 +4631,13 @@
         <v>381105</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>757</v>
@@ -4217,13 +4646,13 @@
         <v>772041</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4667,13 @@
         <v>51101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -4253,13 +4682,13 @@
         <v>36828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>87</v>
@@ -4268,13 +4697,13 @@
         <v>87930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4718,13 @@
         <v>7186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4304,13 +4733,13 @@
         <v>7424</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4319,13 +4748,13 @@
         <v>14610</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4822,13 @@
         <v>593823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4408,13 +4837,13 @@
         <v>524591</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>1070</v>
@@ -4423,13 +4852,13 @@
         <v>1118415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4873,13 @@
         <v>71361</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="H9" s="7">
         <v>65</v>
@@ -4459,10 +4888,10 @@
         <v>71237</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>21</v>
@@ -4474,13 +4903,13 @@
         <v>142598</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,10 +4927,10 @@
         <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4510,13 +4939,13 @@
         <v>9411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -4525,13 +4954,13 @@
         <v>25660</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +5028,13 @@
         <v>584474</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="H12" s="7">
         <v>567</v>
@@ -4614,13 +5043,13 @@
         <v>605405</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="M12" s="7">
         <v>1128</v>
@@ -4629,13 +5058,13 @@
         <v>1189879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +5079,13 @@
         <v>73145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -4665,13 +5094,13 @@
         <v>77783</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>144</v>
@@ -4680,13 +5109,13 @@
         <v>150928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +5130,13 @@
         <v>19470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -4716,13 +5145,13 @@
         <v>18730</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -4734,10 +5163,10 @@
         <v>37</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +5234,13 @@
         <v>524829</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>468</v>
@@ -4820,13 +5249,13 @@
         <v>534734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>938</v>
@@ -4835,13 +5264,13 @@
         <v>1059562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +5285,13 @@
         <v>65381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -4871,13 +5300,13 @@
         <v>64052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -4886,13 +5315,13 @@
         <v>129433</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +5336,13 @@
         <v>20352</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -4922,10 +5351,10 @@
         <v>10923</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>141</v>
@@ -4937,13 +5366,13 @@
         <v>31275</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5440,13 @@
         <v>382278</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>337</v>
@@ -5026,13 +5455,13 @@
         <v>369565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>296</v>
+        <v>150</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>686</v>
@@ -5041,13 +5470,13 @@
         <v>751843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,10 +5491,10 @@
         <v>37893</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>52</v>
@@ -5077,13 +5506,13 @@
         <v>54794</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="M21" s="7">
         <v>83</v>
@@ -5092,13 +5521,13 @@
         <v>92687</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5542,13 @@
         <v>7197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5128,13 +5557,13 @@
         <v>12212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5143,13 +5572,13 @@
         <v>19408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,49 +5640,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>455</v>
+        <v>256</v>
       </c>
       <c r="D24" s="7">
-        <v>504648</v>
+        <v>281424</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="H24" s="7">
-        <v>608</v>
+        <v>292</v>
       </c>
       <c r="I24" s="7">
-        <v>653836</v>
+        <v>302928</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="M24" s="7">
-        <v>1063</v>
+        <v>548</v>
       </c>
       <c r="N24" s="7">
-        <v>1158482</v>
+        <v>584352</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +5691,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
+        <v>21</v>
+      </c>
+      <c r="D25" s="7">
+        <v>22403</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H25" s="7">
         <v>37</v>
       </c>
-      <c r="D25" s="7">
-        <v>41633</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H25" s="7">
-        <v>61</v>
-      </c>
       <c r="I25" s="7">
-        <v>63216</v>
+        <v>36819</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="M25" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="N25" s="7">
-        <v>104849</v>
+        <v>59222</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,49 +5742,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2969</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5620</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M26" s="7">
         <v>9</v>
       </c>
-      <c r="D26" s="7">
-        <v>9200</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H26" s="7">
-        <v>14</v>
-      </c>
-      <c r="I26" s="7">
-        <v>15005</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M26" s="7">
-        <v>23</v>
-      </c>
       <c r="N26" s="7">
-        <v>24205</v>
+        <v>8590</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,10 +5793,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>501</v>
+        <v>280</v>
       </c>
       <c r="D27" s="7">
-        <v>555481</v>
+        <v>306797</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5379,10 +5808,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>683</v>
+        <v>335</v>
       </c>
       <c r="I27" s="7">
-        <v>732056</v>
+        <v>345367</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5394,10 +5823,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>615</v>
       </c>
       <c r="N27" s="7">
-        <v>1287536</v>
+        <v>652164</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5411,55 +5840,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2796</v>
+        <v>199</v>
       </c>
       <c r="D28" s="7">
-        <v>2980987</v>
+        <v>223222</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="H28" s="7">
-        <v>2846</v>
+        <v>316</v>
       </c>
       <c r="I28" s="7">
-        <v>3069236</v>
+        <v>350908</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="M28" s="7">
-        <v>5642</v>
+        <v>515</v>
       </c>
       <c r="N28" s="7">
-        <v>6050223</v>
+        <v>574130</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>225</v>
+        <v>375</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,49 +5897,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>318</v>
+        <v>16</v>
       </c>
       <c r="D29" s="7">
-        <v>340515</v>
+        <v>19230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="H29" s="7">
-        <v>340</v>
+        <v>24</v>
       </c>
       <c r="I29" s="7">
-        <v>367910</v>
+        <v>26397</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="M29" s="7">
-        <v>658</v>
+        <v>40</v>
       </c>
       <c r="N29" s="7">
-        <v>708425</v>
+        <v>45626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>236</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,49 +5948,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>79654</v>
+        <v>6231</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="H30" s="7">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>73704</v>
+        <v>9384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>142</v>
+        <v>389</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="M30" s="7">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="N30" s="7">
-        <v>153357</v>
+        <v>15615</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>168</v>
+        <v>391</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,63 +5999,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>221</v>
+      </c>
+      <c r="D31" s="7">
+        <v>248683</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>348</v>
+      </c>
+      <c r="I31" s="7">
+        <v>386689</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>569</v>
+      </c>
+      <c r="N31" s="7">
+        <v>635372</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2796</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2980987</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2846</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3069236</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5642</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6050223</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>318</v>
+      </c>
+      <c r="D33" s="7">
+        <v>340515</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H33" s="7">
+        <v>340</v>
+      </c>
+      <c r="I33" s="7">
+        <v>367910</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M33" s="7">
+        <v>658</v>
+      </c>
+      <c r="N33" s="7">
+        <v>708425</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>72</v>
+      </c>
+      <c r="D34" s="7">
+        <v>79654</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H34" s="7">
+        <v>67</v>
+      </c>
+      <c r="I34" s="7">
+        <v>73704</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M34" s="7">
+        <v>139</v>
+      </c>
+      <c r="N34" s="7">
+        <v>153357</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3186</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3401156</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3253</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3510850</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6439</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6912006</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>194</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5639,8 +6275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E63C5-01C8-4E08-A7A7-47B929F6384C}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C2A5E4-9836-417B-AEE9-CF5B68039B58}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5656,7 +6292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5763,13 +6399,13 @@
         <v>361763</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="H4" s="7">
         <v>326</v>
@@ -5778,13 +6414,13 @@
         <v>316848</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>667</v>
@@ -5793,13 +6429,13 @@
         <v>678611</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +6450,13 @@
         <v>44361</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -5829,13 +6465,13 @@
         <v>53650</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="M5" s="7">
         <v>94</v>
@@ -5844,13 +6480,13 @@
         <v>98010</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +6501,13 @@
         <v>9133</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5880,13 +6516,13 @@
         <v>21421</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -5895,13 +6531,13 @@
         <v>30554</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,16 +6602,16 @@
         <v>466</v>
       </c>
       <c r="D8" s="7">
-        <v>483737</v>
+        <v>483736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -5987,10 +6623,10 @@
         <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -5999,13 +6635,13 @@
         <v>943551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,16 +6653,16 @@
         <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>78841</v>
+        <v>78840</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="H9" s="7">
         <v>77</v>
@@ -6035,13 +6671,13 @@
         <v>75843</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="M9" s="7">
         <v>152</v>
@@ -6050,13 +6686,13 @@
         <v>154683</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6707,13 @@
         <v>23999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -6086,13 +6722,13 @@
         <v>26342</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6101,13 +6737,13 @@
         <v>50341</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,7 +6755,7 @@
         <v>563</v>
       </c>
       <c r="D11" s="7">
-        <v>586576</v>
+        <v>586575</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6175,13 +6811,13 @@
         <v>569378</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="H12" s="7">
         <v>560</v>
@@ -6190,13 +6826,13 @@
         <v>553558</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="M12" s="7">
         <v>1103</v>
@@ -6205,13 +6841,13 @@
         <v>1122936</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6862,13 @@
         <v>80540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -6244,10 +6880,10 @@
         <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
@@ -6256,13 +6892,13 @@
         <v>164925</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6913,13 @@
         <v>15000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -6292,13 +6928,13 @@
         <v>19341</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>431</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>433</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -6307,13 +6943,13 @@
         <v>34341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +7017,13 @@
         <v>538235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="H16" s="7">
         <v>509</v>
@@ -6399,10 +7035,10 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>491</v>
       </c>
       <c r="M16" s="7">
         <v>992</v>
@@ -6411,13 +7047,13 @@
         <v>1085562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +7068,13 @@
         <v>79811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -6447,13 +7083,13 @@
         <v>67615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -6462,13 +7098,13 @@
         <v>147426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>499</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +7119,13 @@
         <v>19308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>139</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -6498,13 +7134,13 @@
         <v>26527</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -6513,13 +7149,13 @@
         <v>45835</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,28 +7223,28 @@
         <v>396034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="H20" s="7">
         <v>361</v>
       </c>
       <c r="I20" s="7">
-        <v>412559</v>
+        <v>412558</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -6617,13 +7253,13 @@
         <v>808593</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +7274,13 @@
         <v>57401</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="H21" s="7">
         <v>49</v>
@@ -6653,13 +7289,13 @@
         <v>57947</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="M21" s="7">
         <v>99</v>
@@ -6668,13 +7304,13 @@
         <v>115348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>332</v>
+        <v>522</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +7325,13 @@
         <v>22270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -6704,13 +7340,13 @@
         <v>21816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -6719,13 +7355,13 @@
         <v>44086</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,7 +7388,7 @@
         <v>429</v>
       </c>
       <c r="I23" s="7">
-        <v>492322</v>
+        <v>492321</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6787,49 +7423,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>278</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282960</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H24" s="7">
+        <v>295</v>
+      </c>
+      <c r="I24" s="7">
+        <v>314242</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="D24" s="7">
-        <v>503442</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H24" s="7">
-        <v>551</v>
-      </c>
-      <c r="I24" s="7">
-        <v>653881</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>481</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="M24" s="7">
-        <v>1087</v>
+        <v>573</v>
       </c>
       <c r="N24" s="7">
-        <v>1157323</v>
+        <v>597202</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,49 +7474,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>63748</v>
+        <v>35749</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>485</v>
+        <v>183</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>236</v>
       </c>
       <c r="H25" s="7">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7">
-        <v>93893</v>
+        <v>46338</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="M25" s="7">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="N25" s="7">
-        <v>157640</v>
+        <v>82087</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>492</v>
+        <v>359</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,49 +7525,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>19809</v>
+        <v>13774</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>482</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="H26" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I26" s="7">
-        <v>21050</v>
+        <v>13177</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>496</v>
+        <v>438</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="M26" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N26" s="7">
-        <v>40858</v>
+        <v>26951</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>499</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,10 +7576,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>622</v>
+        <v>323</v>
       </c>
       <c r="D27" s="7">
-        <v>586998</v>
+        <v>332483</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6955,10 +7591,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>647</v>
+        <v>350</v>
       </c>
       <c r="I27" s="7">
-        <v>768824</v>
+        <v>373757</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6970,10 +7606,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1269</v>
+        <v>673</v>
       </c>
       <c r="N27" s="7">
-        <v>1355822</v>
+        <v>706240</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6987,55 +7623,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2722</v>
+        <v>258</v>
       </c>
       <c r="D28" s="7">
-        <v>2852589</v>
+        <v>220482</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>363</v>
+        <v>551</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>502</v>
+        <v>374</v>
       </c>
       <c r="H28" s="7">
-        <v>2781</v>
+        <v>256</v>
       </c>
       <c r="I28" s="7">
-        <v>2943986</v>
+        <v>339639</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>389</v>
+        <v>553</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="M28" s="7">
-        <v>5503</v>
+        <v>514</v>
       </c>
       <c r="N28" s="7">
-        <v>5796576</v>
+        <v>560121</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>505</v>
+        <v>398</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,49 +7680,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>383</v>
+        <v>34</v>
       </c>
       <c r="D29" s="7">
-        <v>404701</v>
+        <v>27998</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="H29" s="7">
-        <v>403</v>
+        <v>35</v>
       </c>
       <c r="I29" s="7">
-        <v>433332</v>
+        <v>47555</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>400</v>
+        <v>561</v>
       </c>
       <c r="M29" s="7">
-        <v>786</v>
+        <v>69</v>
       </c>
       <c r="N29" s="7">
-        <v>838033</v>
+        <v>75553</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,49 +7731,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>109518</v>
+        <v>6035</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>143</v>
+        <v>565</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>359</v>
+        <v>566</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>516</v>
+        <v>567</v>
       </c>
       <c r="H30" s="7">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>136497</v>
+        <v>7872</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>517</v>
+        <v>271</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="M30" s="7">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="N30" s="7">
-        <v>246015</v>
+        <v>13908</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>520</v>
+        <v>112</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>521</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,63 +7782,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>299</v>
+      </c>
+      <c r="D31" s="7">
+        <v>254515</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>297</v>
+      </c>
+      <c r="I31" s="7">
+        <v>395066</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>596</v>
+      </c>
+      <c r="N31" s="7">
+        <v>649581</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2722</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2852589</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2781</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2943986</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5503</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5796576</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>383</v>
+      </c>
+      <c r="D33" s="7">
+        <v>404701</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="H33" s="7">
+        <v>403</v>
+      </c>
+      <c r="I33" s="7">
+        <v>433332</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M33" s="7">
+        <v>786</v>
+      </c>
+      <c r="N33" s="7">
+        <v>838033</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>99</v>
+      </c>
+      <c r="D34" s="7">
+        <v>109518</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H34" s="7">
+        <v>127</v>
+      </c>
+      <c r="I34" s="7">
+        <v>136497</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="M34" s="7">
+        <v>226</v>
+      </c>
+      <c r="N34" s="7">
+        <v>246015</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3204</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3366808</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3311</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3513815</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6515</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6880624</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>194</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7215,8 +8058,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EBDF07-F282-4DBA-B859-20C4EB8B9580}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D30FE6-2B8A-4372-9F96-9E8F68387C76}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7232,7 +8075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7336,46 +8179,46 @@
         <v>161</v>
       </c>
       <c r="D4" s="7">
-        <v>349340</v>
+        <v>370330</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="H4" s="7">
         <v>183</v>
       </c>
       <c r="I4" s="7">
-        <v>311877</v>
+        <v>274808</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="M4" s="7">
         <v>344</v>
       </c>
       <c r="N4" s="7">
-        <v>661218</v>
+        <v>645137</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>530</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,46 +8230,46 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>15881</v>
+        <v>15777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>533</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>33732</v>
+        <v>29652</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>49613</v>
+        <v>45429</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>538</v>
+        <v>605</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,46 +8281,46 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>9016</v>
+        <v>10009</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>541</v>
+        <v>460</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>542</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>543</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>9027</v>
+        <v>8413</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>18043</v>
+        <v>18422</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,7 +8332,7 @@
         <v>171</v>
       </c>
       <c r="D7" s="7">
-        <v>374238</v>
+        <v>396116</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7504,7 +8347,7 @@
         <v>205</v>
       </c>
       <c r="I7" s="7">
-        <v>354636</v>
+        <v>312874</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7519,7 +8362,7 @@
         <v>376</v>
       </c>
       <c r="N7" s="7">
-        <v>728874</v>
+        <v>708989</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7542,46 +8385,46 @@
         <v>271</v>
       </c>
       <c r="D8" s="7">
-        <v>384136</v>
+        <v>378755</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="H8" s="7">
         <v>423</v>
       </c>
       <c r="I8" s="7">
-        <v>455680</v>
+        <v>473209</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>553</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="M8" s="7">
         <v>694</v>
       </c>
       <c r="N8" s="7">
-        <v>839816</v>
+        <v>851964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,46 +8436,46 @@
         <v>25</v>
       </c>
       <c r="D9" s="7">
-        <v>34854</v>
+        <v>35364</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>330</v>
+        <v>621</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>325</v>
+        <v>622</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>36075</v>
+        <v>32353</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
       </c>
       <c r="N9" s="7">
-        <v>70929</v>
+        <v>67717</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>563</v>
+        <v>384</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>492</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,46 +8487,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>9406</v>
+        <v>9429</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>628</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>7301</v>
+        <v>6371</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>631</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>633</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>16707</v>
+        <v>15800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>567</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,7 +8538,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7710,7 +8553,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>499056</v>
+        <v>511934</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7725,7 +8568,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>927452</v>
+        <v>935481</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7748,46 +8591,46 @@
         <v>492</v>
       </c>
       <c r="D12" s="7">
-        <v>499221</v>
+        <v>481218</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="H12" s="7">
         <v>766</v>
       </c>
       <c r="I12" s="7">
-        <v>552424</v>
+        <v>538741</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="M12" s="7">
         <v>1258</v>
       </c>
       <c r="N12" s="7">
-        <v>1051646</v>
+        <v>1019959</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,46 +8642,46 @@
         <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>42882</v>
+        <v>40167</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>579</v>
+        <v>646</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>647</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>39983</v>
+        <v>36542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>476</v>
+        <v>648</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>486</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
       </c>
       <c r="N13" s="7">
-        <v>82865</v>
+        <v>76709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>581</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,46 +8693,46 @@
         <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>12595</v>
+        <v>12485</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>584</v>
+        <v>410</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>586</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>14987</v>
+        <v>13834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>241</v>
+        <v>654</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>655</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
       </c>
       <c r="N14" s="7">
-        <v>27581</v>
+        <v>26319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>588</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,7 +8744,7 @@
         <v>542</v>
       </c>
       <c r="D15" s="7">
-        <v>554698</v>
+        <v>533870</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7916,7 +8759,7 @@
         <v>844</v>
       </c>
       <c r="I15" s="7">
-        <v>607394</v>
+        <v>589117</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7931,7 +8774,7 @@
         <v>1386</v>
       </c>
       <c r="N15" s="7">
-        <v>1162092</v>
+        <v>1122987</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7954,46 +8797,46 @@
         <v>602</v>
       </c>
       <c r="D16" s="7">
-        <v>660875</v>
+        <v>828012</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="H16" s="7">
         <v>1020</v>
       </c>
       <c r="I16" s="7">
-        <v>669240</v>
+        <v>641167</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>594</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="M16" s="7">
         <v>1622</v>
       </c>
       <c r="N16" s="7">
-        <v>1330115</v>
+        <v>1469179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>597</v>
+        <v>663</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>598</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,46 +8848,46 @@
         <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>44691</v>
+        <v>42168</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>599</v>
+        <v>665</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>600</v>
+        <v>666</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>57546</v>
+        <v>52810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>602</v>
+        <v>668</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>603</v>
+        <v>669</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
       </c>
       <c r="N17" s="7">
-        <v>102237</v>
+        <v>94978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>605</v>
+        <v>671</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>606</v>
+        <v>486</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>607</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,46 +8899,46 @@
         <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>14782</v>
+        <v>14052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>335</v>
+        <v>142</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>15834</v>
+        <v>14657</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>609</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>244</v>
+        <v>673</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>610</v>
+        <v>502</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
       </c>
       <c r="N18" s="7">
-        <v>30616</v>
+        <v>28708</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>611</v>
+        <v>674</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>612</v>
+        <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>613</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,7 +8950,7 @@
         <v>662</v>
       </c>
       <c r="D19" s="7">
-        <v>720348</v>
+        <v>884232</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8122,7 +8965,7 @@
         <v>1133</v>
       </c>
       <c r="I19" s="7">
-        <v>742620</v>
+        <v>708633</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8137,7 +8980,7 @@
         <v>1795</v>
       </c>
       <c r="N19" s="7">
-        <v>1462968</v>
+        <v>1592865</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8160,46 +9003,46 @@
         <v>597</v>
       </c>
       <c r="D20" s="7">
-        <v>539217</v>
+        <v>504164</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>614</v>
+        <v>675</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>615</v>
+        <v>676</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>616</v>
+        <v>677</v>
       </c>
       <c r="H20" s="7">
         <v>890</v>
       </c>
       <c r="I20" s="7">
-        <v>529939</v>
+        <v>485848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>617</v>
+        <v>678</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>618</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>572</v>
+        <v>679</v>
       </c>
       <c r="M20" s="7">
         <v>1487</v>
       </c>
       <c r="N20" s="7">
-        <v>1069156</v>
+        <v>990013</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>619</v>
+        <v>680</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>620</v>
+        <v>681</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>621</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,46 +9054,46 @@
         <v>51</v>
       </c>
       <c r="D21" s="7">
-        <v>44698</v>
+        <v>41753</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>622</v>
+        <v>683</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>623</v>
+        <v>684</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>624</v>
+        <v>240</v>
       </c>
       <c r="H21" s="7">
         <v>82</v>
       </c>
       <c r="I21" s="7">
-        <v>47387</v>
+        <v>44016</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>626</v>
+        <v>531</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>627</v>
+        <v>686</v>
       </c>
       <c r="M21" s="7">
         <v>133</v>
       </c>
       <c r="N21" s="7">
-        <v>92085</v>
+        <v>85769</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>602</v>
+        <v>687</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>629</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,46 +9105,46 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>10307</v>
+        <v>9731</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>630</v>
+        <v>170</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>631</v>
+        <v>690</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>632</v>
+        <v>691</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
       </c>
       <c r="I22" s="7">
-        <v>16213</v>
+        <v>14846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>633</v>
+        <v>692</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>634</v>
+        <v>693</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>635</v>
+        <v>694</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>26519</v>
+        <v>24577</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>628</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>636</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>637</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,7 +9156,7 @@
         <v>658</v>
       </c>
       <c r="D23" s="7">
-        <v>594222</v>
+        <v>555648</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8328,7 +9171,7 @@
         <v>997</v>
       </c>
       <c r="I23" s="7">
-        <v>593538</v>
+        <v>544710</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8343,7 +9186,7 @@
         <v>1655</v>
       </c>
       <c r="N23" s="7">
-        <v>1187760</v>
+        <v>1100359</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8363,49 +9206,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>939</v>
+        <v>517</v>
       </c>
       <c r="D24" s="7">
-        <v>637310</v>
+        <v>335594</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>549</v>
+        <v>697</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
       <c r="H24" s="7">
-        <v>1532</v>
+        <v>735</v>
       </c>
       <c r="I24" s="7">
-        <v>926720</v>
+        <v>561872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>640</v>
+        <v>699</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>641</v>
+        <v>556</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>642</v>
+        <v>700</v>
       </c>
       <c r="M24" s="7">
-        <v>2471</v>
+        <v>1252</v>
       </c>
       <c r="N24" s="7">
-        <v>1564030</v>
+        <v>897466</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>643</v>
+        <v>701</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>644</v>
+        <v>702</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>703</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,49 +9257,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D25" s="7">
-        <v>49704</v>
+        <v>25742</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>645</v>
+        <v>704</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>646</v>
+        <v>705</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>647</v>
+        <v>542</v>
       </c>
       <c r="H25" s="7">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="I25" s="7">
-        <v>70812</v>
+        <v>33370</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>648</v>
+        <v>706</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>519</v>
+        <v>707</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>649</v>
+        <v>708</v>
       </c>
       <c r="M25" s="7">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="N25" s="7">
-        <v>120516</v>
+        <v>59113</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>650</v>
+        <v>709</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>651</v>
+        <v>695</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>652</v>
+        <v>710</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,49 +9308,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>9507</v>
+        <v>6246</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>653</v>
+        <v>711</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>654</v>
+        <v>712</v>
       </c>
       <c r="H26" s="7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I26" s="7">
-        <v>16784</v>
+        <v>8609</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>655</v>
+        <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>381</v>
+        <v>713</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>656</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N26" s="7">
-        <v>26291</v>
+        <v>14855</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>714</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>35</v>
+        <v>715</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,10 +9359,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D27" s="7">
-        <v>696521</v>
+        <v>367582</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8531,10 +9374,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1687</v>
+        <v>818</v>
       </c>
       <c r="I27" s="7">
-        <v>1014316</v>
+        <v>603852</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8546,10 +9389,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2713</v>
+        <v>1387</v>
       </c>
       <c r="N27" s="7">
-        <v>1710837</v>
+        <v>971434</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8563,55 +9406,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3062</v>
+        <v>422</v>
       </c>
       <c r="D28" s="7">
-        <v>3070101</v>
+        <v>259069</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>657</v>
+        <v>716</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>658</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="H28" s="7">
-        <v>4814</v>
+        <v>797</v>
       </c>
       <c r="I28" s="7">
-        <v>3445879</v>
+        <v>382320</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>660</v>
+        <v>718</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>661</v>
+        <v>258</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>662</v>
+        <v>719</v>
       </c>
       <c r="M28" s="7">
-        <v>7876</v>
+        <v>1219</v>
       </c>
       <c r="N28" s="7">
-        <v>6515981</v>
+        <v>641389</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>663</v>
+        <v>720</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>664</v>
+        <v>721</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>665</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8620,49 +9463,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="D29" s="7">
-        <v>232710</v>
+        <v>20307</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>666</v>
+        <v>525</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>668</v>
+        <v>723</v>
       </c>
       <c r="H29" s="7">
-        <v>401</v>
+        <v>58</v>
       </c>
       <c r="I29" s="7">
-        <v>285535</v>
+        <v>30218</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>324</v>
+        <v>724</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>669</v>
+        <v>725</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>670</v>
+        <v>726</v>
       </c>
       <c r="M29" s="7">
-        <v>641</v>
+        <v>89</v>
       </c>
       <c r="N29" s="7">
-        <v>518245</v>
+        <v>50525</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>671</v>
+        <v>525</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>673</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8671,49 +9514,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>65613</v>
+        <v>2779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="H30" s="7">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="I30" s="7">
-        <v>80144</v>
+        <v>6801</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>358</v>
+        <v>732</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>307</v>
+        <v>733</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="M30" s="7">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="N30" s="7">
-        <v>145757</v>
+        <v>9580</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>677</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>541</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,63 +9565,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282155</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>869</v>
+      </c>
+      <c r="I31" s="7">
+        <v>419339</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1326</v>
+      </c>
+      <c r="N31" s="7">
+        <v>701494</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3062</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3157141</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4814</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3357966</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7876</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6515106</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>240</v>
+      </c>
+      <c r="D33" s="7">
+        <v>221278</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="H33" s="7">
+        <v>401</v>
+      </c>
+      <c r="I33" s="7">
+        <v>258962</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" s="7">
+        <v>641</v>
+      </c>
+      <c r="N33" s="7">
+        <v>480240</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>59</v>
+      </c>
+      <c r="D34" s="7">
+        <v>64730</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="7">
+        <v>111</v>
+      </c>
+      <c r="I34" s="7">
+        <v>73532</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="M34" s="7">
+        <v>170</v>
+      </c>
+      <c r="N34" s="7">
+        <v>138262</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3361</v>
       </c>
-      <c r="D31" s="7">
-        <v>3368424</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3443150</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5326</v>
       </c>
-      <c r="I31" s="7">
-        <v>3811559</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3690459</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8687</v>
       </c>
-      <c r="N31" s="7">
-        <v>7179984</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>194</v>
+      <c r="N35" s="7">
+        <v>7133608</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
